--- a/Team Progress.xlsx
+++ b/Team Progress.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" tabRatio="640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" tabRatio="640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Week #1" sheetId="11" r:id="rId1"/>
@@ -181,25 +181,30 @@
     <t>03/04/2017 8:00 PM to 8:30 PM</t>
   </si>
   <si>
-    <t>Query Data Set to get proper Data using dataframe.js</t>
-  </si>
-  <si>
-    <t>Designed Classes in Java Script using E6</t>
-  </si>
-  <si>
-    <t>Designed UI for data selection and display various charts using HTML5 and JavaScript</t>
-  </si>
-  <si>
-    <t>Use chart.js to generate bar graphs - Running example in legacy code. Understand all fields and their functionality</t>
-  </si>
-  <si>
-    <t>Use chart.js to generate pie charts - Running example in legacy code. Understand all fields and their functionality</t>
+    <t>1) Design UI for data selection and display various charts using HTML5 and JavaScript
+2) Design model</t>
+  </si>
+  <si>
+    <t>1) Query Data Set to get proper Data using dataframe.js
+2) Design Model</t>
+  </si>
+  <si>
+    <t>1) Design Classes in Java Script using E6
+2) Sequesnce diagram</t>
+  </si>
+  <si>
+    <t>1) Use chart.js to generate bar graphs - Running example in legacy code. Understand all fields and their functionality
+2) Domain model</t>
+  </si>
+  <si>
+    <t>1) Use chart.js to generate pie charts - Running example in legacy code. Understand all fields and their functionality
+2)Domain model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,6 +428,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -458,6 +480,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,18 +679,18 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="109.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="109.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -674,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
@@ -697,7 +736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>24</v>
       </c>
@@ -718,7 +757,7 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
         <v>9</v>
@@ -737,7 +776,7 @@
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="9" t="s">
         <v>10</v>
@@ -756,7 +795,7 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="9" t="s">
         <v>11</v>
@@ -775,7 +814,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -784,7 +823,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -793,7 +832,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -802,7 +841,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -811,7 +850,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -820,7 +859,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -843,18 +882,18 @@
       <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -877,7 +916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -900,7 +939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -921,7 +960,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
         <v>9</v>
@@ -942,7 +981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="9" t="s">
         <v>10</v>
@@ -961,7 +1000,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="9" t="s">
         <v>11</v>
@@ -980,12 +1019,12 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -1031,7 +1070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -1052,7 +1091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="9" t="s">
         <v>9</v>
@@ -1071,7 +1110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="9" t="s">
         <v>10</v>
@@ -1090,7 +1129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="9" t="s">
         <v>11</v>
@@ -1123,18 +1162,18 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="52.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
@@ -1178,7 +1217,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
@@ -1199,7 +1238,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
         <v>9</v>
@@ -1220,7 +1259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="9" t="s">
         <v>10</v>
@@ -1239,7 +1278,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="9" t="s">
         <v>11</v>
@@ -1274,18 +1313,18 @@
       <selection activeCell="G15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="52.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1308,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>45</v>
       </c>
@@ -1329,7 +1368,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
@@ -1350,7 +1389,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
         <v>9</v>
@@ -1369,7 +1408,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="9" t="s">
         <v>10</v>
@@ -1388,7 +1427,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="9" t="s">
         <v>11</v>
@@ -1417,21 +1456,21 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="52.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>46</v>
       </c>
@@ -1465,7 +1504,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3">
         <v>42800</v>
@@ -1473,7 +1512,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
@@ -1484,7 +1523,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3">
         <v>42800</v>
@@ -1492,7 +1531,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
         <v>9</v>
@@ -1501,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3">
         <v>42800</v>
@@ -1509,7 +1548,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="9" t="s">
         <v>10</v>
@@ -1526,7 +1565,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="9" t="s">
         <v>11</v>

--- a/Team Progress.xlsx
+++ b/Team Progress.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" tabRatio="640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Week #1" sheetId="11" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Week #3" sheetId="1" r:id="rId3"/>
     <sheet name="Week #4" sheetId="14" r:id="rId4"/>
     <sheet name="Week#5" sheetId="15" r:id="rId5"/>
+    <sheet name="Week#6" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="64">
   <si>
     <t>Team Member Name</t>
   </si>
@@ -126,9 +127,6 @@
 Follow up with TA if we can use An</t>
   </si>
   <si>
-    <t>2/18/2017 8:00 PM to 8:30 PM</t>
-  </si>
-  <si>
     <t>Agenda: Assign next set of task. Discuss the completion of tasks</t>
   </si>
   <si>
@@ -175,12 +173,6 @@
 Study Graph.org</t>
   </si>
   <si>
-    <t>2/25/2017 8:00 PM to 8:30 PM</t>
-  </si>
-  <si>
-    <t>03/04/2017 8:00 PM to 8:30 PM</t>
-  </si>
-  <si>
     <t>1) Design UI for data selection and display various charts using HTML5 and JavaScript
 2) Design model</t>
   </si>
@@ -199,13 +191,63 @@
   <si>
     <t>1) Use chart.js to generate pie charts - Running example in legacy code. Understand all fields and their functionality
 2)Domain model</t>
+  </si>
+  <si>
+    <t>03/11/2017 8:00 PM to 9:00 PM</t>
+  </si>
+  <si>
+    <t>03/04/2017 8:00 PM to 9:00 PM</t>
+  </si>
+  <si>
+    <t>2/25/2017 8:00 PM to 9:00 PM</t>
+  </si>
+  <si>
+    <t>2/18/2017 8:00 PM to 9:00 PM</t>
+  </si>
+  <si>
+    <t>2/11/2017 8:00 PM to 9:00 PM</t>
+  </si>
+  <si>
+    <t>Considering the mid term exams the tasks will be continued on the next week</t>
+  </si>
+  <si>
+    <t>Task from previous week to be continued in this week
+POC is done and diagram in done</t>
+  </si>
+  <si>
+    <t>1) Write functions to get data from dataframe.js and return the data object for the charts
+2) Design model</t>
+  </si>
+  <si>
+    <t>First task completed
+Continue work on Design model</t>
+  </si>
+  <si>
+    <t>First task completed
+Continue work on Domain model</t>
+  </si>
+  <si>
+    <t>1) Format and clean UI and add images to datasets
+2)Domain model</t>
+  </si>
+  <si>
+    <t>Work on design model continued from previous week</t>
+  </si>
+  <si>
+    <t>Work on domain model continued from previous week</t>
+  </si>
+  <si>
+    <t>Some of the tasks from this week work pushed on to next week considering the mid term exams</t>
+  </si>
+  <si>
+    <t>Some of the tasks from previous week to be continued in this week considering the mid term exams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +261,13 @@
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -268,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -300,6 +349,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +982,7 @@
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>7</v>
@@ -1159,7 +1223,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1262,7 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>7</v>
@@ -1207,7 +1271,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3">
         <v>42786</v>
@@ -1219,7 +1283,7 @@
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>8</v>
@@ -1228,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3">
         <v>42786</v>
@@ -1247,7 +1311,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3">
         <v>42786</v>
@@ -1268,7 +1332,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3">
         <v>42786</v>
@@ -1287,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3">
         <v>42786</v>
@@ -1296,7 +1360,7 @@
         <v>42790</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1310,7 +1374,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1413,7 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>7</v>
@@ -1358,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3">
         <v>42793</v>
@@ -1370,7 +1434,7 @@
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>8</v>
@@ -1379,7 +1443,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3">
         <v>42793</v>
@@ -1398,7 +1462,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3">
         <v>42793</v>
@@ -1417,7 +1481,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3">
         <v>42793</v>
@@ -1436,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3">
         <v>42793</v>
@@ -1453,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1559,7 @@
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>7</v>
@@ -1504,17 +1568,21 @@
         <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3">
         <v>42800</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="3">
+        <v>42804</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>8</v>
@@ -1523,13 +1591,15 @@
         <v>12</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3">
         <v>42800</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
@@ -1540,13 +1610,15 @@
         <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3">
         <v>42800</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
@@ -1557,13 +1629,15 @@
         <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3">
         <v>42800</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -1574,13 +1648,174 @@
         <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3">
         <v>42800</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="3">
+        <v>42804</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="16">
+        <v>42807</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="16">
+        <v>42800</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="16">
+        <v>42800</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="16">
+        <v>42800</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="16">
+        <v>42807</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Team Progress.xlsx
+++ b/Team Progress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Week #1" sheetId="11" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Week #4" sheetId="14" r:id="rId4"/>
     <sheet name="Week#5" sheetId="15" r:id="rId5"/>
     <sheet name="Week#6" sheetId="16" r:id="rId6"/>
+    <sheet name="Week#7" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="70">
   <si>
     <t>Team Member Name</t>
   </si>
@@ -241,6 +242,29 @@
   </si>
   <si>
     <t>Some of the tasks from previous week to be continued in this week considering the mid term exams</t>
+  </si>
+  <si>
+    <t>03/18/2017 8:00 PM to 9:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify and implement design patterns
+Refactor code to accommodate design patters
+</t>
+  </si>
+  <si>
+    <t>Create a class to generate dynamic query
+Query dataframe with the dynamically generated query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design UI for filtering logic
+DesignUI for display entire table data returned from UI </t>
+  </si>
+  <si>
+    <t>Identify and implement possible ways to create charts for the data from dataframes</t>
+  </si>
+  <si>
+    <t>Prepare presentation slides
+Complete Design model/class diagram</t>
   </si>
 </sst>
 </file>
@@ -317,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,6 +388,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1675,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,7 +1756,9 @@
       <c r="E2" s="16">
         <v>42807</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="16">
+        <v>42811</v>
+      </c>
       <c r="G2" s="7" t="s">
         <v>60</v>
       </c>
@@ -1750,7 +1779,9 @@
       <c r="E3" s="16">
         <v>42800</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="16">
+        <v>42811</v>
+      </c>
       <c r="G3" s="7" t="s">
         <v>55</v>
       </c>
@@ -1769,7 +1800,9 @@
       <c r="E4" s="16">
         <v>42800</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="16">
+        <v>42811</v>
+      </c>
       <c r="G4" s="7" t="s">
         <v>55</v>
       </c>
@@ -1788,7 +1821,9 @@
       <c r="E5" s="16">
         <v>42800</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="16">
+        <v>42811</v>
+      </c>
       <c r="G5" s="7" t="s">
         <v>55</v>
       </c>
@@ -1807,7 +1842,9 @@
       <c r="E6" s="16">
         <v>42807</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16">
+        <v>42811</v>
+      </c>
       <c r="G6" s="7" t="s">
         <v>61</v>
       </c>
@@ -1816,6 +1853,143 @@
       <c r="B8" s="18" t="s">
         <v>63</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="16">
+        <v>42814</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="16">
+        <v>42814</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="16">
+        <v>42814</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="16">
+        <v>42814</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="16">
+        <v>42814</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Team Progress.xlsx
+++ b/Team Progress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Week #1" sheetId="11" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Week#5" sheetId="15" r:id="rId5"/>
     <sheet name="Week#6" sheetId="16" r:id="rId6"/>
     <sheet name="Week#7" sheetId="17" r:id="rId7"/>
+    <sheet name="Week#8" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="79">
   <si>
     <t>Team Member Name</t>
   </si>
@@ -265,6 +266,36 @@
   <si>
     <t>Prepare presentation slides
 Complete Design model/class diagram</t>
+  </si>
+  <si>
+    <t>03/25/2017 8:00 PM to 9:00 PM</t>
+  </si>
+  <si>
+    <t>Continuing on the same task in next week</t>
+  </si>
+  <si>
+    <t>Pending work on Design model/class diagram completed
+Presentation slide preparation moved to next week along with new task</t>
+  </si>
+  <si>
+    <t>Work to be continued from previous week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicating classes for different types of charts
+</t>
+  </si>
+  <si>
+    <t>Duplicate dynamic query class for 2nd datasource and 3rd datasource</t>
+  </si>
+  <si>
+    <t>Presentation slide preparation to be continued from previous week with the new task assigned</t>
+  </si>
+  <si>
+    <t>1) Prepare presentation slides
+2) work on alternative approach to get data from dataframe other than sql like query</t>
+  </si>
+  <si>
+    <t>Prepare input types for different chart types</t>
   </si>
 </sst>
 </file>
@@ -1863,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,7 +1949,9 @@
       <c r="E2" s="16">
         <v>42814</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="16">
+        <v>42818</v>
+      </c>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1937,8 +1970,12 @@
       <c r="E3" s="16">
         <v>42814</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="16">
+        <v>42818</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
@@ -1954,7 +1991,9 @@
       <c r="E4" s="16">
         <v>42814</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="16">
+        <v>42818</v>
+      </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1971,7 +2010,9 @@
       <c r="E5" s="16">
         <v>42814</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="16">
+        <v>42818</v>
+      </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1989,7 +2030,149 @@
         <v>42814</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="16">
+        <v>42821</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="16">
+        <v>42821</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="16">
+        <v>42821</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="16">
+        <v>42821</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="16">
+        <v>42814</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
